--- a/TestData/SalesTest.xlsx
+++ b/TestData/SalesTest.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>BusinessLocation</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Legal Name</t>
   </si>
 </sst>
 </file>
@@ -503,8 +506,8 @@
     <col min="1" max="1" customWidth="true" style="7" width="18.7265625" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="7" width="28.26953125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="7" width="47.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="23.43359375" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="99.09375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="23.04296875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="97.1953125" collapsed="true"/>
     <col min="6" max="16384" style="7" width="8.7265625" collapsed="true"/>
   </cols>
   <sheetData>
@@ -536,7 +539,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
